--- a/biology/Botanique/Freesia_alba/Freesia_alba.xlsx
+++ b/biology/Botanique/Freesia_alba/Freesia_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Freesia blanc
-Freesia alba, le Freesia blanc[1], est une espèce de plantes monocotylédones à bulbe de la famille des Iridaceae. Elle est originaire d'Afrique du Sud et cultivée pour ses fleurs très odorantes, aux couleurs blanches.
+Freesia alba, le Freesia blanc, est une espèce de plantes monocotylédones à bulbe de la famille des Iridaceae. Elle est originaire d'Afrique du Sud et cultivée pour ses fleurs très odorantes, aux couleurs blanches.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Freesia alba (G.L.Mey.) Gumbl., 1896[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Freesia blanc[1].
-Freesia alba a pour synonyme[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Freesia alba (G.L.Mey.) Gumbl., 1896.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Freesia blanc.
+Freesia alba a pour synonyme :
 Freesia alba hort.</t>
         </is>
       </c>
